--- a/REGULAR/RE-ENCODE/HERNANDEZ, MARIO.xlsx
+++ b/REGULAR/RE-ENCODE/HERNANDEZ, MARIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>MAHOGANY MARKET</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1446,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>229.262</v>
+        <v>230.762</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1453,7 +1456,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>342.04</v>
+        <v>344.54</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3087,13 +3090,15 @@
         <v>45017</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -3104,19 +3109,27 @@
       <c r="A88" s="40">
         <v>45047</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="B88" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39">
+        <v>1</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>45076</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
